--- a/模版金币SDK3.0.xlsx
+++ b/模版金币SDK3.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renyushuang/custom/PythonProject/XpadReleaseJsonBuild/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E942B2-4CDF-CA48-B4E8-588E5314C881}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F1C32F-C3F0-DF44-BD85-6AA8B622AF36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39120" yWindow="460" windowWidth="33600" windowHeight="19640" xr2:uid="{052378FB-25D3-2C42-A5F2-5AFFFEC5CEAD}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{052378FB-25D3-2C42-A5F2-5AFFFEC5CEAD}"/>
   </bookViews>
   <sheets>
     <sheet name="广告id及优先级" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="40">
   <si>
     <t>穿山甲</t>
   </si>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>激励视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百度appid</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -227,7 +231,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -287,13 +291,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -322,6 +335,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -649,8 +668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78709624-B991-904E-8511-7BB7BD3ED7E7}">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
@@ -667,7 +686,7 @@
     <col min="10" max="10" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18">
+    <row r="1" spans="1:10" ht="18">
       <c r="A1" s="5" t="s">
         <v>16</v>
       </c>
@@ -695,12 +714,15 @@
       <c r="I1" s="5" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="10">
+      <c r="J1" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="18">
+      <c r="A2" s="12">
         <v>20001</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="7">
@@ -715,19 +737,22 @@
       <c r="F2" s="8">
         <v>1</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="12">
         <v>5049051</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <v>1110169095</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="12">
         <v>501100023</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="J2" s="11">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="18">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="8">
         <v>945043871</v>
       </c>
@@ -740,13 +765,14 @@
       <c r="F3" s="8">
         <v>2</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="4" spans="1:9" ht="18">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="11"/>
+    </row>
+    <row r="4" spans="1:10" ht="18">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8">
         <v>5011000380</v>
       </c>
@@ -759,13 +785,14 @@
       <c r="F4" s="8">
         <v>3</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-    </row>
-    <row r="5" spans="1:9" ht="18">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10" ht="18">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="8">
         <v>5011000379</v>
       </c>
@@ -778,15 +805,16 @@
       <c r="F5" s="8">
         <v>4</v>
       </c>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-    </row>
-    <row r="6" spans="1:9" ht="18">
-      <c r="A6" s="10">
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="11"/>
+    </row>
+    <row r="6" spans="1:10" ht="18">
+      <c r="A6" s="12">
         <v>20002</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>2</v>
       </c>
       <c r="C6" s="9" t="s">
@@ -801,13 +829,14 @@
       <c r="F6" s="8">
         <v>1</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-    </row>
-    <row r="7" spans="1:9" ht="18">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" ht="18">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="9" t="s">
         <v>29</v>
       </c>
@@ -820,13 +849,14 @@
       <c r="F7" s="8">
         <v>2</v>
       </c>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-    </row>
-    <row r="8" spans="1:9" ht="18">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="11"/>
+    </row>
+    <row r="8" spans="1:10" ht="18">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="9" t="s">
         <v>30</v>
       </c>
@@ -839,13 +869,14 @@
       <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-    </row>
-    <row r="9" spans="1:9" ht="18">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="9" spans="1:10" ht="18">
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="9" t="s">
         <v>32</v>
       </c>
@@ -858,15 +889,16 @@
       <c r="F9" s="8">
         <v>4</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-    </row>
-    <row r="10" spans="1:9" ht="18">
-      <c r="A10" s="10">
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="11"/>
+    </row>
+    <row r="10" spans="1:10" ht="18">
+      <c r="A10" s="12">
         <v>20003</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="12" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="9" t="s">
@@ -881,13 +913,14 @@
       <c r="F10" s="8">
         <v>1</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-    </row>
-    <row r="11" spans="1:9" ht="18">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11"/>
+    </row>
+    <row r="11" spans="1:10" ht="18">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
@@ -900,13 +933,14 @@
       <c r="F11" s="8">
         <v>2</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:9" ht="18">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="11"/>
+    </row>
+    <row r="12" spans="1:10" ht="18">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
       <c r="C12" s="9" t="s">
         <v>30</v>
       </c>
@@ -919,13 +953,14 @@
       <c r="F12" s="8">
         <v>3</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="1:9" ht="18">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="11"/>
+    </row>
+    <row r="13" spans="1:10" ht="18">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="9" t="s">
         <v>32</v>
       </c>
@@ -938,15 +973,16 @@
       <c r="F13" s="8">
         <v>4</v>
       </c>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-    </row>
-    <row r="14" spans="1:9" ht="18">
-      <c r="A14" s="10">
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="11"/>
+    </row>
+    <row r="14" spans="1:10" ht="18">
+      <c r="A14" s="12">
         <v>20004</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="7">
@@ -961,13 +997,14 @@
       <c r="F14" s="8">
         <v>1</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-    </row>
-    <row r="15" spans="1:9" ht="18">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11"/>
+    </row>
+    <row r="15" spans="1:10" ht="18">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="8">
         <v>945043871</v>
       </c>
@@ -980,13 +1017,14 @@
       <c r="F15" s="8">
         <v>2</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-    </row>
-    <row r="16" spans="1:9" ht="18">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="11"/>
+    </row>
+    <row r="16" spans="1:10" ht="18">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
       <c r="C16" s="8">
         <v>5011000380</v>
       </c>
@@ -999,13 +1037,14 @@
       <c r="F16" s="8">
         <v>3</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-    </row>
-    <row r="17" spans="1:9" ht="18">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="11"/>
+    </row>
+    <row r="17" spans="1:10" ht="18">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="8">
         <v>5011000379</v>
       </c>
@@ -1018,15 +1057,16 @@
       <c r="F17" s="8">
         <v>4</v>
       </c>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-    </row>
-    <row r="18" spans="1:9" ht="18">
-      <c r="A18" s="10">
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="11"/>
+    </row>
+    <row r="18" spans="1:10" ht="18">
+      <c r="A18" s="12">
         <v>20005</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="7">
@@ -1041,13 +1081,14 @@
       <c r="F18" s="8">
         <v>1</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-    </row>
-    <row r="19" spans="1:9" ht="18">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="11"/>
+    </row>
+    <row r="19" spans="1:10" ht="18">
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
       <c r="C19" s="8">
         <v>945043871</v>
       </c>
@@ -1060,13 +1101,14 @@
       <c r="F19" s="8">
         <v>2</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-    </row>
-    <row r="20" spans="1:9" ht="18">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="11"/>
+    </row>
+    <row r="20" spans="1:10" ht="18">
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
       <c r="C20" s="8">
         <v>5011000380</v>
       </c>
@@ -1079,13 +1121,14 @@
       <c r="F20" s="8">
         <v>3</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-    </row>
-    <row r="21" spans="1:9" ht="18">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="11"/>
+    </row>
+    <row r="21" spans="1:10" ht="18">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="8">
         <v>5011000379</v>
       </c>
@@ -1098,15 +1141,16 @@
       <c r="F21" s="8">
         <v>4</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-    </row>
-    <row r="22" spans="1:9" ht="18">
-      <c r="A22" s="10">
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="11"/>
+    </row>
+    <row r="22" spans="1:10" ht="18">
+      <c r="A22" s="12">
         <v>20006</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="8">
@@ -1121,13 +1165,14 @@
       <c r="F22" s="8">
         <v>1</v>
       </c>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:9" ht="18">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="11"/>
+    </row>
+    <row r="23" spans="1:10" ht="18">
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="8">
         <v>5011000376</v>
       </c>
@@ -1140,15 +1185,16 @@
       <c r="F23" s="8">
         <v>2</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-    </row>
-    <row r="24" spans="1:9" ht="18">
-      <c r="A24" s="10">
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="11"/>
+    </row>
+    <row r="24" spans="1:10" ht="18">
+      <c r="A24" s="12">
         <v>20007</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="12" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="7">
@@ -1163,13 +1209,14 @@
       <c r="F24" s="8">
         <v>1</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-    </row>
-    <row r="25" spans="1:9" ht="18">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="11"/>
+    </row>
+    <row r="25" spans="1:10" ht="18">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="8">
         <v>945043871</v>
       </c>
@@ -1182,13 +1229,14 @@
       <c r="F25" s="8">
         <v>2</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-    </row>
-    <row r="26" spans="1:9" ht="18">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="11"/>
+    </row>
+    <row r="26" spans="1:10" ht="18">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="8">
         <v>5011000380</v>
       </c>
@@ -1201,13 +1249,14 @@
       <c r="F26" s="8">
         <v>3</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-    </row>
-    <row r="27" spans="1:9" ht="18">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="11"/>
+    </row>
+    <row r="27" spans="1:10" ht="18">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="8">
         <v>5011000379</v>
       </c>
@@ -1220,15 +1269,16 @@
       <c r="F27" s="8">
         <v>4</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:9" ht="18">
-      <c r="A28" s="10">
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="11"/>
+    </row>
+    <row r="28" spans="1:10" ht="18">
+      <c r="A28" s="12">
         <v>20009</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="12" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -1243,13 +1293,14 @@
       <c r="F28" s="8">
         <v>1</v>
       </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:9" ht="18">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="11"/>
+    </row>
+    <row r="29" spans="1:10" ht="18">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
       <c r="C29" s="9" t="s">
         <v>29</v>
       </c>
@@ -1262,13 +1313,14 @@
       <c r="F29" s="8">
         <v>2</v>
       </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="30" spans="1:9" ht="18">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="11"/>
+    </row>
+    <row r="30" spans="1:10" ht="18">
+      <c r="A30" s="13"/>
+      <c r="B30" s="13"/>
       <c r="C30" s="9" t="s">
         <v>30</v>
       </c>
@@ -1281,13 +1333,14 @@
       <c r="F30" s="8">
         <v>3</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-    </row>
-    <row r="31" spans="1:9" ht="18">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="11"/>
+    </row>
+    <row r="31" spans="1:10" ht="18">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
       <c r="C31" s="9" t="s">
         <v>32</v>
       </c>
@@ -1300,15 +1353,16 @@
       <c r="F31" s="8">
         <v>4</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-    </row>
-    <row r="32" spans="1:9" ht="18">
-      <c r="A32" s="10">
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="11"/>
+    </row>
+    <row r="32" spans="1:10" ht="18">
+      <c r="A32" s="12">
         <v>20010</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C32" s="8">
@@ -1323,13 +1377,14 @@
       <c r="F32" s="8">
         <v>1</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-    </row>
-    <row r="33" spans="1:9" ht="18">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="11"/>
+    </row>
+    <row r="33" spans="1:10" ht="18">
+      <c r="A33" s="13"/>
+      <c r="B33" s="13"/>
       <c r="C33" s="8">
         <v>5011000377</v>
       </c>
@@ -1342,15 +1397,16 @@
       <c r="F33" s="8">
         <v>2</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-    </row>
-    <row r="34" spans="1:9" ht="18">
-      <c r="A34" s="10">
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="11"/>
+    </row>
+    <row r="34" spans="1:10" ht="18">
+      <c r="A34" s="12">
         <v>20011</v>
       </c>
-      <c r="B34" s="10" t="s">
+      <c r="B34" s="12" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7">
@@ -1365,13 +1421,14 @@
       <c r="F34" s="8">
         <v>1</v>
       </c>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-    </row>
-    <row r="35" spans="1:9" ht="18">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="11"/>
+    </row>
+    <row r="35" spans="1:10" ht="18">
+      <c r="A35" s="13"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="8">
         <v>945043871</v>
       </c>
@@ -1384,13 +1441,14 @@
       <c r="F35" s="8">
         <v>2</v>
       </c>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-    </row>
-    <row r="36" spans="1:9" ht="18">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="1:10" ht="18">
+      <c r="A36" s="13"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="8">
         <v>5011000380</v>
       </c>
@@ -1403,13 +1461,14 @@
       <c r="F36" s="8">
         <v>3</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-    </row>
-    <row r="37" spans="1:9" ht="18">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="11"/>
+    </row>
+    <row r="37" spans="1:10" ht="18">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
       <c r="C37" s="8">
         <v>5011000379</v>
       </c>
@@ -1422,15 +1481,16 @@
       <c r="F37" s="8">
         <v>4</v>
       </c>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-    </row>
-    <row r="38" spans="1:9" ht="18">
-      <c r="A38" s="10">
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="13"/>
+      <c r="J37" s="11"/>
+    </row>
+    <row r="38" spans="1:10" ht="18">
+      <c r="A38" s="12">
         <v>20012</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C38" s="7">
@@ -1445,13 +1505,14 @@
       <c r="F38" s="8">
         <v>1</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-    </row>
-    <row r="39" spans="1:9" ht="18">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="11"/>
+    </row>
+    <row r="39" spans="1:10" ht="18">
+      <c r="A39" s="13"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="8">
         <v>945043871</v>
       </c>
@@ -1464,13 +1525,14 @@
       <c r="F39" s="8">
         <v>2</v>
       </c>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-    </row>
-    <row r="40" spans="1:9" ht="18">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="11"/>
+    </row>
+    <row r="40" spans="1:10" ht="18">
+      <c r="A40" s="13"/>
+      <c r="B40" s="13"/>
       <c r="C40" s="8">
         <v>5011000380</v>
       </c>
@@ -1483,13 +1545,14 @@
       <c r="F40" s="8">
         <v>3</v>
       </c>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-    </row>
-    <row r="41" spans="1:9" ht="18">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="11"/>
+    </row>
+    <row r="41" spans="1:10" ht="18">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
       <c r="C41" s="8">
         <v>5011000379</v>
       </c>
@@ -1502,15 +1565,16 @@
       <c r="F41" s="8">
         <v>4</v>
       </c>
-      <c r="G41" s="11"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
-    </row>
-    <row r="42" spans="1:9" ht="18">
-      <c r="A42" s="10">
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" ht="18">
+      <c r="A42" s="12">
         <v>20013</v>
       </c>
-      <c r="B42" s="10" t="s">
+      <c r="B42" s="12" t="s">
         <v>10</v>
       </c>
       <c r="C42" s="7">
@@ -1525,13 +1589,14 @@
       <c r="F42" s="8">
         <v>1</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-    </row>
-    <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="11"/>
+    </row>
+    <row r="43" spans="1:10" ht="18">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="8">
         <v>945043871</v>
       </c>
@@ -1544,13 +1609,14 @@
       <c r="F43" s="8">
         <v>2</v>
       </c>
-      <c r="G43" s="11"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
-    </row>
-    <row r="44" spans="1:9" ht="18">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="11"/>
+    </row>
+    <row r="44" spans="1:10" ht="18">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
       <c r="C44" s="8">
         <v>5011000380</v>
       </c>
@@ -1563,13 +1629,14 @@
       <c r="F44" s="8">
         <v>3</v>
       </c>
-      <c r="G44" s="11"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
-    </row>
-    <row r="45" spans="1:9" ht="18">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="11"/>
+    </row>
+    <row r="45" spans="1:10" ht="18">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
       <c r="C45" s="8">
         <v>5011000379</v>
       </c>
@@ -1582,15 +1649,16 @@
       <c r="F45" s="8">
         <v>4</v>
       </c>
-      <c r="G45" s="11"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
-    </row>
-    <row r="46" spans="1:9" ht="18">
-      <c r="A46" s="10">
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="11"/>
+    </row>
+    <row r="46" spans="1:10" ht="18">
+      <c r="A46" s="12">
         <v>20014</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="12" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="7">
@@ -1605,13 +1673,14 @@
       <c r="F46" s="8">
         <v>1</v>
       </c>
-      <c r="G46" s="11"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
-    </row>
-    <row r="47" spans="1:9" ht="18">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="11"/>
+    </row>
+    <row r="47" spans="1:10" ht="18">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
       <c r="C47" s="8">
         <v>945043871</v>
       </c>
@@ -1624,13 +1693,14 @@
       <c r="F47" s="8">
         <v>2</v>
       </c>
-      <c r="G47" s="11"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
-    </row>
-    <row r="48" spans="1:9" ht="18">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="11"/>
+    </row>
+    <row r="48" spans="1:10" ht="18">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
       <c r="C48" s="8">
         <v>5011000380</v>
       </c>
@@ -1643,13 +1713,14 @@
       <c r="F48" s="8">
         <v>3</v>
       </c>
-      <c r="G48" s="11"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
-    </row>
-    <row r="49" spans="1:9" ht="18">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="11"/>
+    </row>
+    <row r="49" spans="1:10" ht="18">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
       <c r="C49" s="8">
         <v>5011000379</v>
       </c>
@@ -1662,15 +1733,16 @@
       <c r="F49" s="8">
         <v>4</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
-    </row>
-    <row r="50" spans="1:9" ht="18">
-      <c r="A50" s="10">
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="11"/>
+    </row>
+    <row r="50" spans="1:10" ht="18">
+      <c r="A50" s="12">
         <v>20015</v>
       </c>
-      <c r="B50" s="10" t="s">
+      <c r="B50" s="12" t="s">
         <v>12</v>
       </c>
       <c r="C50" s="7">
@@ -1685,13 +1757,14 @@
       <c r="F50" s="8">
         <v>1</v>
       </c>
-      <c r="G50" s="11"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
-    </row>
-    <row r="51" spans="1:9" ht="18">
-      <c r="A51" s="11"/>
-      <c r="B51" s="11"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="1:10" ht="18">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="8">
         <v>945043871</v>
       </c>
@@ -1704,13 +1777,14 @@
       <c r="F51" s="8">
         <v>2</v>
       </c>
-      <c r="G51" s="11"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
-    </row>
-    <row r="52" spans="1:9" ht="18">
-      <c r="A52" s="11"/>
-      <c r="B52" s="11"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="11"/>
+    </row>
+    <row r="52" spans="1:10" ht="18">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
       <c r="C52" s="8">
         <v>5011000380</v>
       </c>
@@ -1723,13 +1797,14 @@
       <c r="F52" s="8">
         <v>3</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
-    </row>
-    <row r="53" spans="1:9" ht="18">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="G52" s="13"/>
+      <c r="H52" s="13"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" ht="18">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
       <c r="C53" s="8">
         <v>5011000379</v>
       </c>
@@ -1742,12 +1817,30 @@
       <c r="F53" s="8">
         <v>4</v>
       </c>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
+      <c r="G53" s="14"/>
+      <c r="H53" s="14"/>
+      <c r="I53" s="14"/>
+      <c r="J53" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="A34:A37"/>
+    <mergeCell ref="B34:B37"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="B50:B53"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A46:A49"/>
+    <mergeCell ref="B46:B49"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="B24:B27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="J2:J53"/>
     <mergeCell ref="G2:G53"/>
     <mergeCell ref="H2:H53"/>
     <mergeCell ref="I2:I53"/>
@@ -1763,22 +1856,6 @@
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="B24:B27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="B28:B31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="B50:B53"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A46:A49"/>
-    <mergeCell ref="B46:B49"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1787,6 +1864,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x010100F5253DE9F40C024E9BD5D77E479A471B" ma:contentTypeVersion="2" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="bb1bab3f358526186a41ca8f06043154">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="881b8617-8ee9-4660-bce4-c5106f774a97" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b8526204803c4058aa2b0e1fa002397" ns2:_="">
     <xsd:import namespace="881b8617-8ee9-4660-bce4-c5106f774a97"/>
@@ -1934,12 +2017,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1950,6 +2027,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B322EE-FDD8-4DD6-ACC9-16B1BCE626B1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9DB748E-E309-4EEB-9265-34817D4DEA5E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1967,15 +2053,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82B322EE-FDD8-4DD6-ACC9-16B1BCE626B1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACC19DEF-E898-49B4-A3E2-65377FD2ECEC}">
   <ds:schemaRefs>
